--- a/utils/cleaners/Plan de área colegios Coding For Kids (Responses).xlsx
+++ b/utils/cleaners/Plan de área colegios Coding For Kids (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="588">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1829,6 +1829,324 @@
 globales; que desarrollen procesos investigativos,
 comunicativos, axiológicos y tecnológicos; contribuyendo a su proyección social y respondiendo a las exigencias de un
 mundo en constante cambio.</t>
+  </si>
+  <si>
+    <t>El desarrollo de pensamiento computacional, no está incluido en el plan de área</t>
+  </si>
+  <si>
+    <t>La institución educativa San Pedro Clavel de Cascajal, tiene como misión, formar personas integras fundamentadas en valores, capaces de resolver situaciones problemáticas mediante el liderazgo, que contribuyan a la transformación positiva de su entorno, orientados hacia el desarrollo de las competencias laborales que le permitan desempeñarse en el ámbito profesional o técnico, mejorando su calidad de vida.</t>
+  </si>
+  <si>
+    <t>La institución educativa San Pedro Clavel de Cascajal, en el 2025, será reconocida por contar con un sistema de gestión de calidad, que promueve la formación de líderes, resignificar su plan de estudios, fortalecer la relación con los padres de familia y comunidad, haber establecido convenios de integración son diversas entidades y asumir los retos tecnológicos del siglo XXI.</t>
+  </si>
+  <si>
+    <t>Somos una institución educativa de carácter oficial que propende a la formación social y académica en los niveles de preescolar, básica y media; garantizando metodologías apropiadas con un enfoque constructivista social, un buen clima organizacional, ambiente escolar con sentido humanista y una adecuada infraestructura para la transformación del entorno sociocultural en lo relacionado con la convivencia y la cultura ciudadana propendiendo mejores resultados en las pruebas académicas internas y externas.</t>
+  </si>
+  <si>
+    <t>La comunidad educativa Joaquín Ochoa Maestre al 2025, será reconocida por promover una convivencia pacífica y una mayor seguridad institucional que permite optimizar los procesos académicos para alcanzar el nivel alto en las pruebas saber, fundamentado en la formación humanística, científica y técnica, que posibilite crear espacios y ambientes para el desarrollo, crecimiento y transformación en la población (comunidad educativa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Este año en particular se están haciendo muchas adecuaciones a nivel curricular en el área de TI incorporando el pensamiento computacional desde grado sexto a once. Ya se está implementando en sus prácticas educativas y queda pendiente formalizarlo en el documento oficial de la institución.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formar integralmente estudiantes calificados y cualificados en competencias generales y laborales en los niveles técnico y académico, con espíritu humanístico y valores que le permitan participar crítica y creativamente en el la transformación y mejora de la sociedad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para el año 2025 seremos una institución líder en el municipio de Valledupar destacándonos por el desarrollo de procesos educativos de calidad, donde nuestros egresados sean reconocidos por la integralidad de su formación humana y técnica, con altos niveles académicos y competitivos a nivel laboral, seremos una institución que establece relaciones interinstitucionales, sólida económicamente y con un equipo de trabajo competitivo e idóneo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Se tiene en cuenta la caracterización de los estudiantes de inclusión pero en el plan de estudios no se incluye como un capitulo que permita tener un marco metodológico para la atención de estudiantes con necesidades especiales.</t>
+  </si>
+  <si>
+    <t>Somos una institución educativa que promueve el desarrollo integral de los estudiantes de preescolar, básica primaria, básica secundaria y media, y en formación especial por ciclos, en los niveles ético, social, cognoscitivos y creativos; basados en parámetros curriculares, que permiten desarrollar su proyecto de vida, siendo competentes y comprometidos con la comunidad a la que pertenecen.</t>
+  </si>
+  <si>
+    <t>Para el año 2019, la Institución educativa Rodolfo Castro Castro, consciente de su labor social, será líder en el municipio ofreciendo a sus educandos una educación integral, a través de la innovación pedagógica basada en una cultura de paz, orientada hacia la excelencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde orientación escolar se han destinado espacios para los estudiantes de Once con charlas con respecto a orientación profesional y la oportunidad de vincularse a una institución para sus estudios de educación superior, fortaleciendo la idea de la importancia de las pruebas saber para la consecución de cupos en universidades públicas. Por ahora las indagaciones que se hacen a partir de la coordinación académica tienen el objetivo de identificar qué cantidad de estudiantes continúan sus estudios después de egresar de bachillerato. </t>
+  </si>
+  <si>
+    <t>A pesar que los docentes del área de TI no han incluido el pensamiento computacional en su malla curricular, es evidente que al tener un convenio con el SENA para el desarrollo de cursos técnicos se promueve la orientación para el desarrollo de carreras profesionales STEM.</t>
+  </si>
+  <si>
+    <t>La Institución educativa Técnico Upar es una institución oficial que ofrece educación en los niveles de preescolar, básica y media técnica en las especialidades en sistemas, elaboración de productos químicos de aseo para el hogar y manipulación de alimentos, bachillerato por ciclos, para la adquisición de conocimientos científicos y técnicos avanzados que permitan formar personas competentes para ingresar al mercado laboral, continuar estudios superiores y contribuir a la solución de los problemas de su entorno.</t>
+  </si>
+  <si>
+    <t>La Institución educativa Técnico Upar es una institución formadora de personas quienes, por su alto nivel académico y técnico, contribuyen permanentemente en la solución de los distintos problemas de la sociedad. La Institución educativa Técnico Upar espera dar los mejores técnicos en las diferentes especialidades o énfasis que ofrece, para ingresar al mercado laboral en términos de calidad y responsabilidad frente a los servicios que preste en la comunidad, sin dejar de lado la continua formación y preparación académica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El plan de área se enfoca en ofimática. </t>
+  </si>
+  <si>
+    <t>La Institución Educativa Distrital Ciudadela Estudiantil orienta su acción educativa hacia la formación con calidad y equidad en niños, niñas, jóvenes y adultos, para que sean capaces de afrontar retos de competitividad: intelectual, social, humano y laboral con énfasis en el área comercial, a través de la practica y fomento de valores como la responsabilidad, respeto, autoestima y autonomía unidos con  el uso de las nuevas tecnologías, informática y comunicaciones,  aplicadas  en las diferentes áreas del conocimiento, contribuyendo con el desarrollo ambiental, cultural, económico ,social  y sostenible de su comunidad.</t>
+  </si>
+  <si>
+    <t>En el 2024 estaremos posicionados como  una Institución que ejerce  liderazgo en la comunidad barranquillera, con una amplia infraestructura acorde a los programas de formación laboral ofrecidos con las entidades SENA – CODETEC, siendo modelo de calidad y equidad académica, entregando personas integras que resalten vivencialmente los valores humanos y se desempeñen de manera competitiva en  su comunidad, en el campo laboral - comercial, tecnológico e intelectual; capaces de transformar positivamente su entorno local, regional y nacional, respondiendo con éxito a las exigencias del Siglo XXI.</t>
+  </si>
+  <si>
+    <t>La Institución Educativa Rural Luis Antonio Robles propende por el desarrollo integral de los educandos encaminando sus capacidades y potencialidades físicas, ambientales y morales hacía el desarrollo sostenible para que participe activa y creativamente en su entorno social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Institución Educativa Rural Luis Antonio Robles proyecta ser a 2022 líder en el contexto social del Distrito de Riohacha con la participación de toda la comunidad educativa, mediante un proceso significativo que incluye el énfasis en ECOTURISMO, propiciando el desarrollo sostenible y sustentable con sentido de pertenencia y conciencia ciudadana. </t>
+  </si>
+  <si>
+    <t>“El colegio ciudadela educativa de bosa, es una institución de carácter oficial ubicada en la localidad séptima de la ciudad de Bogotá; que ofrece los niveles de formación del preescolar, básica y media con énfasis en TIC, propendiendo por la formación integral, inclusiva y transformadora de la problemática social, económica, política y ambiental que contribuye al plan de desarrollo de la educación.”</t>
+  </si>
+  <si>
+    <t>"El colegio ciudadela educativa de bosa, al 2025 será reconocida como una institución comprometida con la formación integral de la comunidad, orientando sus esfuerzos hacia el crecimiento personal de los estudiantes, con un alto sentido humanista y competente en el adecuado uso e innovación de las tecnologías; que permita afrontar los retos y compromisos en la sociedad actual.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La institución apenas esta incursionando en todos los procesos que tiene que ver con el pensamiento computacional. </t>
+  </si>
+  <si>
+    <t>La Institución Educativa Jorge Artel forma significativamente al ser humano en valores, principios, competencias y capacidades para posibilitar el ejercicio de una cultura ciudadana crítica, analítica y participativa, en el marco de prácticas respetuosas con el medio ambiente, a través de las artes, las letras, la ciencia, el deporte y la tecnología, en escenarios incluyentes y pertinentes para las comunidades que habitan la Vía Perimetral, a orillas de la Ciénaga de la Virgen en la ciudad de Cartagena de Indias.</t>
+  </si>
+  <si>
+    <t>La Institución Educativa Jorge Artel será reconocida en el 2025 como el más importante referente de formación en competencias para la vida, cultura ciudadana y cuidado del medio ambiente en las comunidades que habitan la Vía Perimetral de la ciudad de Cartagena de Indias</t>
+  </si>
+  <si>
+    <t>Facilitar el servicios educativo en los diferentes niveles de formación con un enfoque holístico y diferencial que garanticen la calidad de la misma, bajo los principios de equidad y garantía de acceso a las diferentes herramientas educativas disponibles para la niñez y la adolescencia, permitiendo el desarrollo máximo de todo su potencial y talento creativo para asumir roles de liderazgo como agentes de cambios y transformación en sus comunidades, tomando como base para esto la reflexión crítica, la resiliencia social, el emprendimiento y la innovación</t>
+  </si>
+  <si>
+    <t>Ser reconocida hacia el año 2027 como la Institución Educativa de la Guajira formadora, con los más altos niveles de Calidad, Pertinencia y Relevancia, de jóvenes indígenas con liderazgo ético e identidad con su pueblo Wayuu para la promoción del emprendimiento y la innovación social diferencial.</t>
+  </si>
+  <si>
+    <t>En el plan se menciona a los y las docentes que tienen asignación académica en el área; sin embrago, no es claro si las mismas personas son las encargadas de realizar el plan. Además, En pocos grados se contemplan estrategias para el trabajo con población en situación de discapacidad y/o necesidades educativas especiales; sin embrago, no está en todos los grados y los que se menciona no se habla de ellas detalladamente. De otro lado, se menciona aula de apoyo y se da a entender que este servicio no es permanente en la IE, por lo cual no podría determinarse si se incluye personal experto en la atención a estudiantes con necesidades educativas especiales</t>
+  </si>
+  <si>
+    <t>La Institución educativa Finca la Mesa a través de su modelo pedagógico socio - cognitivo  se enfoca en la formación de personas en valores sociales y en habilidades para la vida que permita la inclusión de elementos en el desarrollo de su proyecto de vida  como el respeto, la autorreflexión, la convivencia y la resolución asertiva de conflictos en su entorno.</t>
+  </si>
+  <si>
+    <t>Para el año 2026 Finca la Mesa busca ser una Institución de referencia local y regional en constante evolución que ofrece a sus estudiantes la posibilidad de desarrollar competencias necesarias para su inclusión e integración en la sociedad y mercado laboral, fomentando el pensamiento crítico, autónomo y respetuoso que propende por el bienestar del individuo y la sociedad.</t>
+  </si>
+  <si>
+    <t>La institución  trabaja ofimática y tiene articulación con el SENA para actividades específicas con 10 y 11</t>
+  </si>
+  <si>
+    <t>No se encontró nada referente al pensamiento computacional</t>
+  </si>
+  <si>
+    <t>Somos una Institución Educativa de carácter oficial-rural, ubicada en el corregimiento de Caimalito de la ciudad Pereira. Ofrecemos una educación de calidad inclusiva en formación preescolar, básica y secundaria, con énfasis en emprendimiento, así como medias técnicas en articulación con el Sena en contabilización de operaciones comerciales y financieras, técnico en integración de operaciones logísticas además de educación para jóvenes y adultos en jornadas nocturna y sabatina. Procuramos formar estudiantes con principios como identidad, sabiduría y superación y valores como la responsabilidad y respeto en pro de la transformación social de nuestro contexto multicultural y de la comunidad educativa.</t>
+  </si>
+  <si>
+    <t>Para el año 2023 la Institución será reconocida por formar estudiantes con principios como identidad, sabiduría y superación y valores como la responsabilidad y respeto en pro de la transformación social de nuestro contexto multicultural y de la comunidad educativa.</t>
+  </si>
+  <si>
+    <t>El pensamiento computacional se esta desarrollando como practivas anexas a otros temas del area de informatica</t>
+  </si>
+  <si>
+    <t>Formamos a la niñez y juventud femenina de los sectores populares,
+fundamentados en la Filosofía Personalizante y Humanizadora, para construir una
+sociedad más humana y justa.</t>
+  </si>
+  <si>
+    <t>Seremos reconocidos regionalmente por la proyección de nuestras
+estudiantes y la formación al estilo del Enfoque pedagógico Personalizante y Humanizador</t>
+  </si>
+  <si>
+    <t>Si se enfoca en problemas ambientales y sociales pero más enfocado a la tecnología y su impacto ambiental</t>
+  </si>
+  <si>
+    <t>En nuestra Institución Educativa ciudadela Cuba ofrecemos educación formal en los niveles de Preescolar, Básica Primaria, Secundaria y Media en los programas académicos de las jornadas diurna, nocturna y sabatina atendiendo propósitos educativos en torno a los saberes de las áreas fundamentales establecidas en la Ley General de Educación y a los de otras áreas que se desarrollan en articulación con el Sena en la Media Técnica.
+Además atiende estudiantes con inteligencias múltiples de tipo cognitivo, psicológico, físico y neurológico a través de la aplicación de Planes Individuales de Ajustes Razonables (PIAR).</t>
+  </si>
+  <si>
+    <t>Nuestra Institución Educativa Ciudadela Cuba deberá consolidarse durante los próximos cinco años como una de las mejores de la región, ofreciendo formación integral con fortalezas en sistemas de información, desarrollando en sus egresados competencias para ingresar a la educación superior o al mercado laboral, como respuesta a las necesidades de un mundo globalizado que cambia al ritmo de los avances de la cuarta revolución industrial y la inteligencia artificial, en donde el factor humano será el que moldee cambios dignos para el proseguir de la vida de los seres vivos del universo.</t>
+  </si>
+  <si>
+    <t>Desde grado sexto se enseña el manejo de correo electrónico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educamos de manera  integral niños, niñas, jóvenes y adultos. Formamos personas capaces de transformar el medio en el cual viven  comprometiéndose con el cambio y mejoramiento socio-económico de su familia y comunidad, mediante la formación en valores, competencias generales y apropiación de los elementos de la ciencia y la tecnología.  
+Nuestros egresados al concluir la educación media podrán ingresar al mercado laboral calificado en el área de la informática y/o podrán continuar sus estudios superiores. Para lo anterior se gestionan recursos financieros y de infraestructura, y se compromete el personal directivo, docente y administrativo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La institución impulsará el desarrollo social, cultural y tecnológico del corregimiento de Puerto Caldas. Nuestra institución será reconocida en el municipio de Pereira y el departamento de Risaralda por brindar una educación con excelencia,  especialmente en el área de tecnología e informática, proyectándose a la comunidad con programas de extensión. La institución tendrá una visión y unas  políticas de carácter social.
+</t>
+  </si>
+  <si>
+    <t>No se trabaja pensamiento computacional de manera explícita, en 10 y 11 se trabaja con resolución de problemas usando la tecnología que de alguna manera podría estar relacionado.</t>
+  </si>
+  <si>
+    <t>Garantizar la continuidad del servicio educativo a los niños, jóvenes y adultos en los tres niveles de educación formal, en la media técnica y en integración con SENA en capacitación laboral, formando integralmente el talento humano fundamentado en una filosofía humanista, en valores como el amor, el respeto, la responsabilidad, la justicia, la autoestima y desarrollando fortalezas para su desempeño social, laboral, técnico y académico.</t>
+  </si>
+  <si>
+    <t>Ser formadora de talento humano, académico, técnico y laboral, respondiendo a las necesidades  sociales, económicas, productivas de la región y personales del estudiante; apropiando herramientas técnicas y tecnológicas basadas en el conocimiento global y en estrategias de emprendimiento, aportándoles a los jóvenes elementos eficaces para enfrentarse al mundo del trabajo y del emprendimiento.</t>
+  </si>
+  <si>
+    <t>Tiene un plan de estudio organizado para cada grado. Busca resolver problemas usando las tecnologías</t>
+  </si>
+  <si>
+    <t>La I.E Carlota Sánchez, ofrece formación integral e inclusiva a niños, jóvenes y adultos en los niveles de educación Preescolar, Básica Primaria y Media Vocacional. Desde el respeto y fortalecimiento a los valores a través de la construcción de aprendizajes significativos que aporten a su formación personal, académica, laboral, el respeto al medio ambiente y a la diferencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para el año 2025 seremos reconocidos como una institución que ofrece la mejor opción formativa integral en la zona centro de la ciudad de Pereira. Lo cual se evidenciará a través del aporte que sus estudiantes realizarán al desarrollo económico, social y cultural de su entorno. </t>
+  </si>
+  <si>
+    <t>El objetivo en cada una de las asignaturas que conforman el plan de estudios de cada programa de la Especialidad de informática, está encaminado en formar estudiantes integrales capaces de identificar los valores de las herramientas computacionales articulándolas a la producción gráfica de elementos publicitarios, a la creación de contenidos y aplicaciones para la WEB o a la aplicación de las herramientas electrónicas y computacionales</t>
+  </si>
+  <si>
+    <t>Ser una Institución eficiente, cualificada, formadora de personas integrales, con espíritu crítico y reflexivo, reconocida por sus aportes a la educación técnica y tecnológica que contribuya al desarrollo local, regional, nacional y su inserción en los procesos de globalización.</t>
+  </si>
+  <si>
+    <t>Institución Educativa de carácter oficial con especialidad técnica industrial, comprometida en acompañar y fortalecer a los jóvenes en los procesos curriculares críticos y reflexivos para contribuir a la formación humana integral, mediante el desarrollo de competencias que permitan su proyección hacia la universidad, el trabajo, o empresa fundamentada en los principios humanísticos, científicos y tecnológicos al servicio de una sociedad sustentable y globalizada.</t>
+  </si>
+  <si>
+    <t>Formar personas integras y trascendentes que contribuyan en la construcción de una sociedad más justa, humana, fraterna y solidaria, mediante la ejecución continua del Proyecto Educativo Institucional Claretiano Gustavo Torres Parra.</t>
+  </si>
+  <si>
+    <t>Para el año 2025 la Institución Educativa Claretiano Gustavo Torres Parra, será reconocida por su excelente labor en la formación integral, fundamentada en el fortalecimiento de los valores fuerza: libertad, amor, comunitariedad, justicia, fe y trascendencia, y en la exigencia académica como una fuente de crecimiento personal y social esencial para continuar siendo la mejor institución oficial a nivel local, regional y nacional.</t>
+  </si>
+  <si>
+    <t>La Institución Educativa “CHON KAY”, de carácter oficial, ofrece a la comunidad los servicios en Educación Pre-escolar, Básica y Media con énfasis en procesos administrativos público y turístico para fomentar entre los estudiantes competencias éticas, morales, intelectuales, afectivos, laborales, de cultura ciudadana y de emprendimiento como pilar de la formación integral y centro de las políticas educativas que les permitirá desenvolverse en su entorno social, cultural, laboral y étnico como resultado de su interactuar dentro del proceso de aprendizaje.</t>
+  </si>
+  <si>
+    <t>La Institución Educativa “CHON KAY”, se posesionará en el año 2025 de manera competente y competitiva a nivel cultural, investigativo, empresarial y tecnológico, en el contexto nacional, regional y local, empleando estrategias pedagógicas y evaluativas, orientadas a alcanzar las metas propuestas</t>
+  </si>
+  <si>
+    <t>La Institución Educativa El Caguán, de carácter oficial rural, ofrece el servicio educativo formal, en los niveles de preescolar, básica y media académica con articulación SENA de acuerdo a las necesidades inclusivas de la comunidad; comprometidos en la formación integral de personas líderes, críticas, emprendedoras, competentes, con espíritu investigativo, que vivencien principios y valores institucionales, que contribuyan en la transformación de su proyecto de vida y de su entorno con responsabilidad.</t>
+  </si>
+  <si>
+    <t>Para el año 2025 la institución educativa El Caguán, será reconocida por contar con un ambiente escolar democrático organizado e inclusivo, basado en la vivencia de valores y el respeto por la diversidad, que reconoce y se adapta a las transformaciones como ciudadana del mundo, liderando procesos de participación y responsabilidad social, comprometida con el desarrollo sostenible del entorno de forma crítica, creativa, emprendedora y tecnológica.</t>
+  </si>
+  <si>
+    <t>Ofrecer una educación integral a niños, jóvenes y adultos en niveles de preescolar, básica, media y media técnica, con un alto contenido científico, tecnológico, cultural, ético y moral, que permita la transformación de la realidad social, laboral, ambiental y comunitaria.</t>
+  </si>
+  <si>
+    <t>En el año 2025, la Institución Educativa Agustín Codazzi será reconocida como una de las mejores en la ciudad de Neiva, en la formación académica e integral de sus estudiantes, con un alto nivel de excelencia, comprometida con la construcción de valores humanos y desarrollo de su proyecto de vida, mediante la aplicación de los avances de la ciencia la cultura y la tecnología.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Institución Educativa Técnico  Superior de Neiva concentra sus esfuerzos en formar jóvenes líderes en el desarrollo de procesos de calidad, mediante una educación humanística, técnica, tecnológica, empresarial, laboral y académica, en interacción con otras instituciones para que sean competentes y competitivos en el campo  donde se desempeñen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Institución Educativa Técnico  Superior de Neiva, pretende  hacia el año 2020, proyectarse como una organización líder en el desarrollo de procesos técnicos, tecnológicos y académicos. Con una comunidad educativa actuante y participante, abierta al debate, a la crítica autónoma, con valores éticos y morales, con un currículo flexible y pertinente que privilegie la formación integral  a través del aprendizaje significativo, para que  el egresado sea capaz de insertarse a la sociedad de manera productiva  y con responsabilidad social. </t>
+  </si>
+  <si>
+    <t>No aplica.</t>
+  </si>
+  <si>
+    <t>Formar ciudadanos bilingües y biculturales que posean unos altos valores éticos y un compromiso en la búsqueda de la excelencia académica y un éxito en la vida.</t>
+  </si>
+  <si>
+    <t>Ser un colegio líder en Cartagena y la costa en la formación de estudiantes bilingües preparados para enfrentar los retos del mundo globalizado.</t>
+  </si>
+  <si>
+    <t>.Brindar a los niños y jóvenes de la zona suroriental una educación integral de calidad en los niveles de preescolar, básica y media académica basada en principios axiológicos como la honradez, el respeto, la tolerancia, amor y convivencia pacífica; facilitando a los estudiantes el ejercicio de las prácticas democráticas y de liderazgo.</t>
+  </si>
+  <si>
+    <t>Ser siempre una gran concentración educativa, en donde los estudiantes, las familias y la comunidad encontrarán la oportunidad para un mejoramiento personal y comunitario. Hoy en día son esa gran concentración educativa, gracias al apoyo y la decisión de todos los estamentos que conforman la comunidad</t>
+  </si>
+  <si>
+    <t>Formar ciudadanos competentes, seguros de sí mismos con una educación de calidad fundamentada en los valores y proyectos institucionales, capaces de liderar procesos de profunda transformación para la construcción de una sociedad más humana</t>
+  </si>
+  <si>
+    <t>En el 2018 la Institución Educativa Soledad Acosta de Samper estará certificada bajo la norma ISO 9001:2008, en su sistema de gestión de calidad y será reconocida por su excelencia académica, liderazgo, autonomía, compromiso social y humano a nivel local, regional y nacional.</t>
+  </si>
+  <si>
+    <t>La Institución Educativa Técnica de Pasacaballos, forma miembros de la comunidad educativa en conocimientos, valores y principios con el propósito de mejorar la calidad de vida a través de la implementación de procesos sustentados en el SGC con el uso adecuado de las nuevas tecnologías y estrategias de mejoramiento continuo, que contribuyan al fortalecimiento de la identidad étnica y la satisfacción de las necesidades, intereses y expectativas de la comunidad de Pasacaballos y el Distrito de Cartagena.</t>
+  </si>
+  <si>
+    <t>A 2020 la Institución Educativa Técnica de Pasacaballos, seguirá siendo líder a Nivel Local con proyección Nacional e Internacional, como Institución Etnoeducativa y formación integral Académica – Técnica de calidad, fundamentada en el uso adecuado de herramientas tecnológicas con una alta formación y competencia en inglés de sus estudiantes, promoviendo la formación de líderes con pensamiento crítico, creativo, con valores y principios éticos para responder a las exigencias educativas y necesidades del mercado laboral; y seguir contribuyendo al desarrollo de la región y el país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somos una institución educativa comprometida en formar personas integrales, fortaleciendo en ellas la práctica de valores humanos y la adquisición de conocimientos, que les permitan desarrollarse como ciudadanos competentes acorde con la exigencia y expectativas locales, regionales y nacionales; en un ámbito globalizado , utilizando para ello los medios de la ciencia y la tecnología  </t>
+  </si>
+  <si>
+    <t>La institución Educativa Foco Rojo, se proyecta al año 2025 como líder en la formación integral y la convivencia armónica de los educandos de la localidad número 2 de la Virgen y Turística,  para que en su entorno sean agentes positivos de cambio hacia la consolidación de la paz y la justicia social</t>
+  </si>
+  <si>
+    <t>En el plan de área se desarrollan actividades sobre pensamiento computacional únicamente en los grado superiores (decimo y once)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misión 
+Somos una institución educativa distrital de carácter formal, en la que cada uno de los integrantes de la comunidad educativa se compromete con la formación. El desarrollo humano, el fortalecimiento de valores y competencias básicas, laborales, científicas, artísticas, ambientales y deportivas. Niñas y niños y jóvenes que se apropian de herramientas teórico-prácticas para el diseño, gestión y ejecución de proyectos, que contribuyen a su formación integral.  
+</t>
+  </si>
+  <si>
+    <t>Al 2020 LA INSTITUCION EDUCATIVA DISTRITAL MANUELITA SAENZ tendrá una educación y formación acorde con las necesidades de la comunidad educativa y de la localidad; definida por acciones que se desarrollarán en un ambiente sano y agradable aprovechando las amplias  zonas verdes e instalaciones que poseemos, formando niñas, niños y jóvenes que conserven y respeten el medio ambiente preparados académicamente e integralmente para ser útiles a la sociedad.    *No esta actualizado*</t>
+  </si>
+  <si>
+    <t>La Institución Educativa Colegio de San Simón de Ibagué Tolima, fundada en 1822, integrante de la comunidad santanderina, con su Proyecto Educativo Institucional, contribuye a la formación integral de seres humanos, autónomos, interdependientes y democráticos; comprometidos con la preservación del ambiente, el desarrollo de nuestra región y la construcción de la paz; cultura, generadoras de progreso y desarrollo con sentido ético y humano, competentes en la ciencia, la tecnología, el deporte y el arte, con sentido humanista.</t>
+  </si>
+  <si>
+    <t>La Institución Educativa “Colegio de San Simón” del municipio Ibagué, al 2025 alcanzará niveles de excelencia académica, tecnológica, deportiva y artística, mediante el desarrollo de competencias cognitivas y la práctica de valores en sana convivencia, que le permita al claustro ilustre mantenerse en los primeros lugares de la educación en Colombia.</t>
+  </si>
+  <si>
+    <t>Ser una Institución Educativa Técnica Empresarial que, en el
+marco de la Educación Humanista, inclusiva y de la Pedagogía
+Crítica, formamos personas emprendedoras con especialidad en
+Comercialización de Productos y Servicios. Desarrollamos, en los
+estudiantes, competencias asociadas a la productividad y la
+competitividad que les permite enfrentar el Desafío y la
+Responsabilidad de ser productivos para sí mismos y para quienes
+los rodean y aportar con su proyecto de vida al desarrollo social
+sostenible de la región; demostrando Autonomía personal y
+académica, Actitud Democrática, Respeto a la diversidad y
+Emprendimiento.</t>
+  </si>
+  <si>
+    <t>Para el año 2020, La Institución Educativa Técnica Empresarial
+“Alberto Castilla” se consolidará como entidad formadora de
+jóvenes emprendedores, competentes y comprometidos en
+acciones que les permitan enfrentar los desafíos sociales,
+económicos, culturales y tecnológicos que caracterizan el mundo
+productivo.
+Igualmente, alcanzará un nivel alto en las pruebas saber, que se
+verá reflejado en el incremento del ISCE.</t>
+  </si>
+  <si>
+    <t>Para este año 2022, se contempla incluir competencias relacionadas con el pensamiento computacional</t>
+  </si>
+  <si>
+    <t>La IET NUEVA ESPERANZA LA PALMA, es una institución educativa de carácter oficial rural, líder en jornada única, que desarrolla sus procesos educativos en los niveles de preescolar, básica , media y adultos;  proyectando su accionar pedagógico, hacia el desarrollo humano  y atención integral  de sus estudiantes, a través de aprendizajes funcionales y significativos, para el desarrollo de las competencias básicas y específicas, en cada una de las áreas del conocimiento, dentro del contexto socio-cultural-productivo de la región, con calidad cobertura y pertinencia y acorde con las políticas educativas del estado colombiano.</t>
+  </si>
+  <si>
+    <t>Para el año 2025 la I E T NUEVA ESPERANZA LA PALMA, de Ibagué, será un establecimiento educativo abanderado de la jornada única, con una educación con total cobertura, pertinente y de calidad, reconocida por el desarrollo humano y atención  integral de sus estudiantes con liderazgo, habilidad para construir sus proyectos de vida, la responsabilidad y el respeto con el medio ambiente, la valoración asertiva de la diversidad, emprendedores y altamente creativos e innovadores</t>
+  </si>
+  <si>
+    <t>La Institución Educativa GUILLERMO ANGULO GOMEZ  está comprometida con  la formación integral de los estudiantes (niños y jóvenes) desde el nivel de preescolar hasta el grado 11º, y adultos, desde básica primaria hasta media; forma bachilleres académicos, facilita los procesos de articulación con el mundo laboral; fomenta las capacidades y competencias ciudadanas, tecnológicas, laborales y científicas que posibilitan la construcción y dialogo de saberes a partir del trabajo investigativo e  interdisciplinario  para contribuir con el  mejoramiento de la calidad de vida, la convivencia social y el desarrollo humano de los egresados</t>
+  </si>
+  <si>
+    <t>En 2020, la Institución Educativa Guillermo Angulo Gómez será líder y referente en su propuesta curricular y formación integral de los niños, jóvenes y adultos; basada en el humanismo, la ciencia,  la tecnología, la formación de investigadores, el fomento del liderazgo, el reconocimiento y excelencia en la realización personal, ética y social  de sus egresados con proyección Local,  regional y Nacional</t>
+  </si>
+  <si>
+    <t>A partir del grado 9 se evidencian procesos afines al pensamiento computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Institución Educativa Raíces Del Futuro, Ofrece el servicio educativo en los niveles de preescolar, básica y media con profundización en ciencias naturales y Educación ambiental y humanidades-ingles.La Institución Educativa Raíces del Futuro se dedica al fortalecimiento de la disciplina académica,en la comunidad educativa, con personal ético, académico y profesionalmente idóneo, generando ambientes óptimos para el desempeño armónico,pluralista,participativo y bioético, para que los estudiantes adopten la disciplina como insumo en la solución de situaciones, en la construcción de sus proyectos de vida, usando herramientas y/o competencias del siglo XXI. </t>
+  </si>
+  <si>
+    <t>La Institución Educativa RAICES DEL FUTURO será reconocida en el año 2025, por brindar una educación transversal e integral y por contribuir al desarrollo multidimensional del ser humano, desde el principio de la disciplina, centrado en procesos de investigación de aula y el uso de tecnologías para el aprendizaje y la comunicación TAC, con personal capaz de formar en la autonomía y el reconocimiento de iguales y diferentes; con principios éticos, ambientales y de trascendencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somos una institución educativa con un enfoque integral humanista diversificado que ofrece los niveles de educación preescolar, básica y media (Técnica y Académica) que respeta las diferencias individuales y fomenta el desarrollo de las competencias básicas, laborales y ciudadanas en concordancia con las exigencias del mundo globalizado. </t>
+  </si>
+  <si>
+    <t>Para el año 2025 continuaremos siendo una institución incluyente, reconocida por su destacado trabajo en la formación integral, con pensamiento crítico, emprendedora que le permitirá dar soluciones acertadas a las necesidades y retos que exige la sociedad actual y su momento histórico de los procesos de paz, teniendo en cuenta las apuestas productivas de la región y su proyección a nivel nacional e internacional.</t>
+  </si>
+  <si>
+    <t>La Institución Educativa “GENERAL JOSÉ MARÍA CABAL”, es una institución que vela por Formar ciudadanos autónomos, críticos y éticos; con habilidades socioemocionales; con competencias adecuadas para la paz y la democracia; comprometidos en la acción y el servicio para la transformación de sí mismo, de la escuela y de la comunidad; con aptitudes para el emprendimiento y el uso de herramientas tecnológicas, el trabajo productivo y/o continuar estudios superiores; individuos investigadores, creativos e innovadores, con gran sensibilidad por el entorno ambiental, respetuosos de lo público, resilientes y comprometidos con el desarrollo sostenible.</t>
+  </si>
+  <si>
+    <t>Al 2030, estar dentro de las mejores Instituciones Educativas de Santiago de Cali, en educación preescolar, básica y media técnica; siendo una institución formadora de individuos útiles a la comunidad, ciudadanos constructores de paz, cultura, convivencia y promotores de democracia representativa y participativa; con altos niveles de calidad humana y profesional, innovadores y transformadores de su entorno; con habilidades adecuadas para reflexionar, pensar de forma crítica y responsables con el desarrollo sostenible.</t>
+  </si>
+  <si>
+    <t>Formar normalistas superiores para el ejercicio de la docencia en preescolar y básica primaria, a través de procesos pedagógicos y curriculares, articulados dentro de un contexto social incluyente que permitan el desarrollo de un maestro de alta calidad.
+Formar un Normalista Superior implica la organización y desarrollo de una propuesta formativa acorde con lo dispuesto en las políticas Educativas del Ministerio de Educación Nacional tal como la Ley 115 de 1994, sus decretos y resoluciones reglamentarias y el Decreto 4790 de 2008.</t>
+  </si>
+  <si>
+    <t>La INSTITUCIÓN EDUCATIVA ESCUELA NORMAL SUPERIOR FARALLONES DE CALI, organización formadora de normalistas superiores de acuerdo con su misión, será para el 2023reconocida por sus altos resultados académicos, el aprovechamiento de las herramientas tecnológicas de la información y la comunicación y la aplicación de los requisitos y directrices de las entidades y órganos de regulación y control del servicio educativo, capaz de soportar los cambios en la normatividad, aprovechando sus alianzas y convenios y la optimización de sus recursos garantizando así su sostenibilidad y crecimiento.</t>
+  </si>
+  <si>
+    <t>Somos una institución educativa de carácter técnico, fundamentada en una formación integral fundamentada en una formación integral, incluyente y de calidad para los educandos, en los niveles de preescolar, básica, media y de adultos, generando procesos de pensamiento y competencias que promuevan una actitud de liderazgo, emprendedora y transformadora de su calidad de vida y entorno social, articulada con instituciones, que aportan al desarrollo de las competencias laborales.</t>
+  </si>
+  <si>
+    <t>En el año 2020 la IED Técnico Santuario, será una institución reconocida en el distrito de barranquilla, por ser el centro de formación integral, comprometida con el desarrollo l de su comunidad en la calidad de la formación humanística, académica y técnica, en convenio con otras instituciones que respondan a las necesidades y expectativas del sector educativo, productivo y del ciudadano que necesita el país.</t>
   </si>
 </sst>
 </file>
@@ -11494,6 +11812,2192 @@
         <v>491</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="3">
+        <v>44697.49756928241</v>
+      </c>
+      <c r="B169" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P169" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q169" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R169" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3">
+        <v>44697.66530806713</v>
+      </c>
+      <c r="B170" s="2">
+        <v>155.0</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R170" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="S170" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3">
+        <v>44697.678933159725</v>
+      </c>
+      <c r="B171" s="2">
+        <v>156.0</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="R171" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="S171" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3">
+        <v>44697.68778679398</v>
+      </c>
+      <c r="B172" s="2">
+        <v>158.0</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="R172" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="S172" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3">
+        <v>44697.69605277778</v>
+      </c>
+      <c r="B173" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P173" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="R173" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="S173" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>44697.70456982639</v>
+      </c>
+      <c r="B174" s="2">
+        <v>161.0</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="R174" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="S174" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3">
+        <v>44697.71789138889</v>
+      </c>
+      <c r="B175" s="2">
+        <v>247.0</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="R175" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="S175" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3">
+        <v>44697.765232164355</v>
+      </c>
+      <c r="B176" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R176" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="S176" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3">
+        <v>44697.76740545139</v>
+      </c>
+      <c r="B177" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R177" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="S177" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3">
+        <v>44697.89674311342</v>
+      </c>
+      <c r="B178" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R178" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3">
+        <v>44698.05910585648</v>
+      </c>
+      <c r="B179" s="2">
+        <v>126.0</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="S179" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3">
+        <v>44698.5956219213</v>
+      </c>
+      <c r="B180" s="2">
+        <v>191.0</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="S180" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3">
+        <v>44698.64612942129</v>
+      </c>
+      <c r="B181" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="S181" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3">
+        <v>44698.684791064814</v>
+      </c>
+      <c r="B182" s="2">
+        <v>212.0</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3">
+        <v>44698.6853459375</v>
+      </c>
+      <c r="B183" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="S183" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3">
+        <v>44698.69063440972</v>
+      </c>
+      <c r="B184" s="2">
+        <v>211.0</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="R184" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3">
+        <v>44698.71961341435</v>
+      </c>
+      <c r="B185" s="2">
+        <v>214.0</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R185" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="S185" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3">
+        <v>44698.72721777778</v>
+      </c>
+      <c r="B186" s="2">
+        <v>215.0</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="R186" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="S186" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3">
+        <v>44698.739798009265</v>
+      </c>
+      <c r="B187" s="2">
+        <v>217.0</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P187" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R187" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3">
+        <v>44698.75758152778</v>
+      </c>
+      <c r="B188" s="2">
+        <v>216.0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="R188" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="S188" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3">
+        <v>44698.95666243056</v>
+      </c>
+      <c r="B189" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R189" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="S189" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3">
+        <v>44698.998965520834</v>
+      </c>
+      <c r="B190" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R190" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="S190" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3">
+        <v>44699.004074247685</v>
+      </c>
+      <c r="B191" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R191" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="S191" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3">
+        <v>44699.0554478125</v>
+      </c>
+      <c r="B192" s="2">
+        <v>82.0</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R192" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="S192" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3">
+        <v>44699.07992815972</v>
+      </c>
+      <c r="B193" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R193" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="S193" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3">
+        <v>44699.42232376157</v>
+      </c>
+      <c r="B194" s="2">
+        <v>141.0</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="R194" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="S194" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3">
+        <v>44699.42430759259</v>
+      </c>
+      <c r="B195" s="2">
+        <v>144.0</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R195" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3">
+        <v>44699.425752152776</v>
+      </c>
+      <c r="B196" s="2">
+        <v>145.0</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R196" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="S196" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3">
+        <v>44699.42736299768</v>
+      </c>
+      <c r="B197" s="2">
+        <v>146.0</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R197" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="S197" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3">
+        <v>44699.42875148148</v>
+      </c>
+      <c r="B198" s="2">
+        <v>147.0</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R198" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="S198" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3">
+        <v>44699.449310358796</v>
+      </c>
+      <c r="B199" s="2">
+        <v>219.0</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q199" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="S199" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3">
+        <v>44699.827651423606</v>
+      </c>
+      <c r="B200" s="2">
+        <v>204.0</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3">
+        <v>44699.832498564814</v>
+      </c>
+      <c r="B201" s="2">
+        <v>205.0</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3">
+        <v>44699.83638512732</v>
+      </c>
+      <c r="B202" s="2">
+        <v>206.0</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3">
+        <v>44699.84158168982</v>
+      </c>
+      <c r="B203" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3">
+        <v>44699.854462442134</v>
+      </c>
+      <c r="B204" s="2">
+        <v>209.0</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3">
+        <v>44699.91043334491</v>
+      </c>
+      <c r="B205" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3">
+        <v>44700.11735771991</v>
+      </c>
+      <c r="B206" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R206" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="S206" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3">
+        <v>44700.12655547453</v>
+      </c>
+      <c r="B207" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3">
+        <v>44700.3683925463</v>
+      </c>
+      <c r="B208" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q208" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R208" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
